--- a/xlsx/責任制_intext.xlsx
+++ b/xlsx/責任制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>責任制度</t>
   </si>
   <si>
-    <t>政策_政策_政治_責任制</t>
+    <t>体育运动_体育运动_薪资_責任制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
